--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/145.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/145.xlsx
@@ -479,13 +479,13 @@
         <v>-15.22728250323303</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.951740202293919</v>
+        <v>-5.897350000899491</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.749609284263754</v>
+        <v>-3.740765070841505</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.111190090375917</v>
+        <v>-8.231396102212756</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.20865386423392</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.626628488216593</v>
+        <v>-6.582021189562861</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.742280662970249</v>
+        <v>-3.740329949230349</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.021095471832409</v>
+        <v>-8.14193216555508</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.19838917252885</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.11497182812526</v>
+        <v>-7.064747060581443</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.849868148083579</v>
+        <v>-3.844490240529973</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.597062128251141</v>
+        <v>-7.70571541686146</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.18940066671037</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.659436077859243</v>
+        <v>-7.612193604504244</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.59586468531988</v>
+        <v>-3.588496951971439</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.20214770956922</v>
+        <v>-7.316413578062756</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.17103571479505</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.423666075267919</v>
+        <v>-8.376658274242532</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.602792408050298</v>
+        <v>-3.588296502689896</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.797396609071066</v>
+        <v>-6.908377064950034</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.12807628630834</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.163314146149748</v>
+        <v>-9.115841889472005</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.529858203609661</v>
+        <v>-3.517533017298168</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.351421402671083</v>
+        <v>-6.45334252882566</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.0352206221153</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.804590509862381</v>
+        <v>-9.760403665799204</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.422622726990749</v>
+        <v>-3.408869950674117</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.794768858817881</v>
+        <v>-5.892749445437724</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.86415180201781</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.4547501990522</v>
+        <v>-10.40802107141823</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.300671339702422</v>
+        <v>-3.289729742334266</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.275414548352374</v>
+        <v>-5.363582898190318</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.59147970404823</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.7370659005822</v>
+        <v>-10.6811943301071</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.138546982988656</v>
+        <v>-3.126505359075444</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.082142328889492</v>
+        <v>-5.164507427576408</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.19273264825833</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.47335033473959</v>
+        <v>-11.41239908612977</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.195142126480063</v>
+        <v>-3.18635169213335</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.469124424867627</v>
+        <v>-4.552369544790588</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.66269610141238</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.08483797961211</v>
+        <v>-12.01805414581005</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.853146318125629</v>
+        <v>-2.838518409579819</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.899115114254013</v>
+        <v>-3.989058173584648</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.98554617549661</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.0009009742797</v>
+        <v>-12.93430292273859</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.716928808799644</v>
+        <v>-2.691134408569801</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.134278879993839</v>
+        <v>-3.224080158125333</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.17141656537353</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.49967745484236</v>
+        <v>-13.42998955096136</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.559497898678116</v>
+        <v>-2.540626332171824</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.635600179568514</v>
+        <v>-2.717065700991918</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.21522478433786</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.34688856580319</v>
+        <v>-14.27030716223983</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.349128822201633</v>
+        <v>-2.334192906223207</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.941317203404789</v>
+        <v>-2.019756429577573</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.14314575500572</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.9523480652088</v>
+        <v>-14.88143790961107</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.025452122577529</v>
+        <v>-2.010266867248891</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.742466627106757</v>
+        <v>-1.817336878266693</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.972800328680099</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.01333589043235</v>
+        <v>-15.93131791123299</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.648333688891177</v>
+        <v>-1.631686620509332</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.366462886986063</v>
+        <v>-1.44017444351854</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.754573697350594</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.77584495742387</v>
+        <v>-16.68327650140571</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.45397610990384</v>
+        <v>-1.439113529028419</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.203057610473165</v>
+        <v>-1.273767316789355</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.531002352439152</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.60902461867665</v>
+        <v>-17.5129067436731</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9545102793729423</v>
+        <v>-0.9356387128666506</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8952848501871347</v>
+        <v>-0.9548769548879609</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.366035135447622</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.36062142234122</v>
+        <v>-18.26728539224495</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6503602731752964</v>
+        <v>-0.6345198909264921</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.088679294821689</v>
+        <v>-1.145152213141424</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.306877176261248</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.8242850555857</v>
+        <v>-18.71422373299771</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2334453235922573</v>
+        <v>-0.2181867331606158</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.395317805514595</v>
+        <v>-1.445567018092747</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.404205818943739</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.4282094068351</v>
+        <v>-19.30633135464978</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2515930476743747</v>
+        <v>0.2562522712185446</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.511989065386653</v>
+        <v>-1.556410581779442</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.684312137552479</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.87882916975865</v>
+        <v>-19.76040275642137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4492409282831453</v>
+        <v>0.4491138141046055</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.526181852321307</v>
+        <v>-1.563440973654066</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.164187610855087</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.08699330413816</v>
+        <v>-19.9697304744352</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5489766683682102</v>
+        <v>0.5514456168360022</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.034438117198918</v>
+        <v>-2.072327920417509</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.838272618633078</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.65577547402818</v>
+        <v>-20.54318164588313</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8542022560765773</v>
+        <v>0.8473185344079611</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.374771663218602</v>
+        <v>-2.403592358699065</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.689511794189982</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.67558572985292</v>
+        <v>-20.5585526834727</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8993620125062707</v>
+        <v>0.8924245117621183</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.838337516325743</v>
+        <v>-2.863041668024264</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.68722005715919</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.92782915014453</v>
+        <v>-20.80694356635319</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8227268298673789</v>
+        <v>0.810880766228844</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.17433940226134</v>
+        <v>-3.19744484871438</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.794441522819119</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.0263817505678</v>
+        <v>-20.91120652679702</v>
       </c>
       <c r="F28" t="n">
-        <v>0.859624164691986</v>
+        <v>0.8493963623263999</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.539729108473963</v>
+        <v>-3.564154586781069</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.97361670762777</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.89869066921771</v>
+        <v>-20.78096827286927</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7237391078329519</v>
+        <v>0.7148020032802315</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.84102393466133</v>
+        <v>-3.871252664119465</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.190483532710937</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.5425949650591</v>
+        <v>-20.42293652199135</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7422146647830236</v>
+        <v>0.7369834274354246</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.46091089333121</v>
+        <v>-4.488416445964473</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.419415666003365</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.48764741688184</v>
+        <v>-20.36217594464933</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7442338246190594</v>
+        <v>0.7344949229401648</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.626076212316198</v>
+        <v>-4.643588634913487</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.643692340036981</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.34367594266493</v>
+        <v>-20.22613932857742</v>
       </c>
       <c r="F32" t="n">
-        <v>0.511854439227725</v>
+        <v>0.4993630266827573</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.106078906509907</v>
+        <v>-5.118902771521825</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.853822638869604</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.94746593716327</v>
+        <v>-19.82949909047148</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4083052737864664</v>
+        <v>0.3994366153298827</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.193435681207943</v>
+        <v>-5.20577064553317</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.048720782559256</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.64774048218019</v>
+        <v>-19.5213645436773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3534603947534145</v>
+        <v>0.339463168093437</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.495336744246808</v>
+        <v>-5.509783759538542</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.229372145871907</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.08847720866005</v>
+        <v>-18.96194482193743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1469780787361286</v>
+        <v>0.1383685376434914</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.319386276113407</v>
+        <v>-5.335700892028302</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.402872112095681</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.7245982055693</v>
+        <v>-18.58800913172144</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09781422568243188</v>
+        <v>0.09159540894771606</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.45059744240767</v>
+        <v>-5.466677385992953</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.574189268123848</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.2847147017255</v>
+        <v>-18.15894500007411</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1404316985413295</v>
+        <v>0.1342617718752828</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.036523005814308</v>
+        <v>-5.058195973255343</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.748920730786911</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.8345153933925</v>
+        <v>-17.69814143584678</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.09771182594609765</v>
+        <v>-0.09652379727743732</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.877263607124554</v>
+        <v>-4.90148374714325</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.929348685929268</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.29389879206278</v>
+        <v>-17.15914309579001</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1087463144447247</v>
+        <v>-0.1121979532927666</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.883770875264418</v>
+        <v>-4.906832320655655</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.116851209852626</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.81297207557122</v>
+        <v>-16.68611212538852</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1958097487307461</v>
+        <v>-0.1926172272466506</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.723528786194414</v>
+        <v>-4.762406168800121</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.312917441557538</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.0890763848146</v>
+        <v>-15.9585496794817</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3833716081730711</v>
+        <v>-0.3750994085542511</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.824946344641697</v>
+        <v>-4.868658955038784</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.515592792938335</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.44537996270284</v>
+        <v>-15.31977648728493</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4854442935405214</v>
+        <v>-0.4798463806779038</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.786851203134696</v>
+        <v>-4.843998804402065</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.725127023437509</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.95174671736417</v>
+        <v>-14.83029400877627</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5872578615440253</v>
+        <v>-0.5814497213861303</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.389052270401294</v>
+        <v>-4.452946701145006</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.936348168175673</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.36951977859014</v>
+        <v>-14.25289740878675</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6329847427702807</v>
+        <v>-0.6220187003677905</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.563897822982773</v>
+        <v>-4.627161571840653</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.147324608040277</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.85284953289457</v>
+        <v>-13.73117192999079</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7691778070619304</v>
+        <v>-0.7584171029478507</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.654192890807826</v>
+        <v>-4.724071465956641</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.350299304992846</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.90935432069672</v>
+        <v>-12.7861904597054</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9337613342297553</v>
+        <v>-0.9280363071885979</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.569569070948395</v>
+        <v>-4.652613741589812</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.542887320284194</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.54553398568838</v>
+        <v>-12.43254414798711</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.064767162235608</v>
+        <v>-1.057008308337814</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.755571337200174</v>
+        <v>-4.852491009329896</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.716932397867709</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.78151421557498</v>
+        <v>-11.66427583090636</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.182372222419247</v>
+        <v>-1.175346719551491</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.751669909720376</v>
+        <v>-4.856475549926431</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.872936303239717</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.38304059989394</v>
+        <v>-11.26476574576953</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.28482136131545</v>
+        <v>-1.277810525468294</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.715212585513791</v>
+        <v>-4.817505276190253</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.006871510612664</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.81551979377559</v>
+        <v>-10.69934232359709</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.528841472056909</v>
+        <v>-1.523434230462101</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.943920326748072</v>
+        <v>-5.05617192441244</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.124640651370145</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.39712347511187</v>
+        <v>-10.27885350999433</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.484737741110469</v>
+        <v>-1.483359041173999</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.124701133665987</v>
+        <v>-5.236605611842802</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.227991210603082</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.860413190268817</v>
+        <v>-9.7445486165298</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.60251391653445</v>
+        <v>-1.602313467252907</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.137344105423828</v>
+        <v>-5.251570861862429</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.326976583950051</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.312296852405247</v>
+        <v>-9.204719145305651</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.566266819623143</v>
+        <v>-1.562893404884972</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.278563068774667</v>
+        <v>-5.398817970680174</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.426691989391568</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.781507154878026</v>
+        <v>-8.663163854657482</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.661651343596654</v>
+        <v>-1.66197401804987</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.222926170629175</v>
+        <v>-5.334967540998265</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.537558486148654</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.046875205041651</v>
+        <v>-7.935674743853671</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.825305959459764</v>
+        <v>-1.829456726289775</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.400783351440674</v>
+        <v>-5.518168406315302</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.66463264893299</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.689831033550853</v>
+        <v>-7.579324811337974</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.927495980992021</v>
+        <v>-1.927583983115625</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.411240937129005</v>
+        <v>-5.52121425759339</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.813738662627812</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.364008059912173</v>
+        <v>-7.261368249748161</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.811753632424676</v>
+        <v>-1.818441793818616</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.304597030340989</v>
+        <v>-5.407569292971951</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.988279984767538</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.844912866810612</v>
+        <v>-6.733849297814904</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.858551206154786</v>
+        <v>-1.866486064299789</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.538731569197545</v>
+        <v>-5.638565089419949</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.187804405009244</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.365663079674407</v>
+        <v>-6.269246975251977</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.048489122934432</v>
+        <v>-2.048973134614256</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.524299220926412</v>
+        <v>-5.61273157713517</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.411701232598928</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.271569253513761</v>
+        <v>-6.171295722673336</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.09091592452552</v>
+        <v>-2.098244545819025</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.4045772207694</v>
+        <v>-5.480307937137912</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.652500853205086</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.157665171528377</v>
+        <v>-6.058775229631289</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.169374706725771</v>
+        <v>-2.176541990792668</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.387035464130909</v>
+        <v>-5.456092686126082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.905586745044913</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.907533802203274</v>
+        <v>-5.813684426385976</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.183743497907634</v>
+        <v>-2.196758034187361</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.512966503008903</v>
+        <v>-5.58390599264784</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.158794558087447</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.614755625978073</v>
+        <v>-5.5168385964475</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.328907889800072</v>
+        <v>-2.338368118087553</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.354284007129445</v>
+        <v>-5.416203279098923</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.406288720602687</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.453252173136405</v>
+        <v>-5.363015773393755</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.506369061055351</v>
+        <v>-2.513697682348857</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.161867363868274</v>
+        <v>-5.223762190803417</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.635027505559318</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.278211060280249</v>
+        <v>-5.184669691895565</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.329059449012947</v>
+        <v>-2.334867589170842</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.214072179193192</v>
+        <v>-5.271190446419359</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.840906604827223</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.26911261850092</v>
+        <v>-5.186664406697266</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.425578222579582</v>
+        <v>-2.433811310143466</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.266374774655448</v>
+        <v>-5.317728902785523</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.013916533535971</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.077492883359056</v>
+        <v>-4.991407250446417</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.539399191448229</v>
+        <v>-2.546009128732298</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.182391414695583</v>
+        <v>-5.227580505166477</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.153422390110773</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.178524210263853</v>
+        <v>-5.094350179036178</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.6110280310554</v>
+        <v>-2.609018649233097</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.066790847327379</v>
+        <v>-5.107296269219769</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.25393980759055</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.275947450100867</v>
+        <v>-5.197161104440533</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.600907786840886</v>
+        <v>-2.6025016030795</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.85560530670412</v>
+        <v>-4.892287525226584</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.317763092644155</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.079311593913548</v>
+        <v>-4.995196230768276</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.570155933647991</v>
+        <v>-2.565809606543303</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.895093815168193</v>
+        <v>-4.92064376505469</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.342254992969011</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.560908104345872</v>
+        <v>-5.480625722584262</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.66774539971848</v>
+        <v>-2.663790193163146</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.717373526548967</v>
+        <v>-4.74827204994787</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.328587256910648</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.62813683777282</v>
+        <v>-5.547072214912503</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.638494471633728</v>
+        <v>-2.629625813177144</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.489496916482062</v>
+        <v>-4.511517003410646</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.275392601964448</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.846675444723918</v>
+        <v>-5.769355801123657</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.739980476177148</v>
+        <v>-2.734069666875048</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.480026910180848</v>
+        <v>-4.501411426216733</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.180771873835328</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.003241000630002</v>
+        <v>-5.932110839723256</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.627631098375443</v>
+        <v>-2.619872244477649</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.029837379861585</v>
+        <v>-4.044743961798809</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.04671492019861</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.463692556362918</v>
+        <v>-6.391579705075923</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.843607865728278</v>
+        <v>-2.83498365761504</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.844886250086193</v>
+        <v>-3.868016141573567</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.87145015022177</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.653948258588914</v>
+        <v>-6.585282157143094</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.893441512722742</v>
+        <v>-2.882646585560593</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.479403652743099</v>
+        <v>-3.493048870908658</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.660328754741204</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.240321075186092</v>
+        <v>-7.170193160687064</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.898951423461755</v>
+        <v>-2.889349413975134</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.172853144173798</v>
+        <v>-3.177179915251017</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.411682050224373</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.90198459753376</v>
+        <v>-7.834819421196083</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.987100217272231</v>
+        <v>-2.978231558815648</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.888513393800891</v>
+        <v>-2.889637865380282</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.132647349858951</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.638469480972695</v>
+        <v>-8.572565668406682</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.984797495037914</v>
+        <v>-2.971939406977928</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.500453362746384</v>
+        <v>-2.492787399979062</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.82136013149273</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.232958048968952</v>
+        <v>-9.169283623534252</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.065700780671623</v>
+        <v>-3.05519919392149</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.169570267000447</v>
+        <v>-2.152908531598001</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.485130481582104</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.960970283507523</v>
+        <v>-9.891223711544114</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.022105506439342</v>
+        <v>-3.009486979715835</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.810365154474472</v>
+        <v>-1.792867398897784</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.122733601056929</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.85421139412035</v>
+        <v>-10.78744222733889</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.168042361416754</v>
+        <v>-3.156049627572211</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.746480501744495</v>
+        <v>-1.73252727614632</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.741485138810519</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.75371043352283</v>
+        <v>-11.69392276854733</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.177644370903375</v>
+        <v>-3.165402297708619</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.484527513815192</v>
+        <v>-1.463377670108918</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.342841536760548</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.80757497574128</v>
+        <v>-12.74521080414692</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.22023250972107</v>
+        <v>-3.210694057323719</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.249928519306278</v>
+        <v>-1.210767574302289</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.934229360072296</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.17174478380283</v>
+        <v>-14.11711991007879</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.189201983136762</v>
+        <v>-3.177321696450158</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.126329536703801</v>
+        <v>-1.100217351027609</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.519518350239656</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.37997971784412</v>
+        <v>-15.32201565242998</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.119939422853177</v>
+        <v>-3.110865426108183</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.155560908761086</v>
+        <v>-1.127996688045419</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.10562741232723</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.82223185457716</v>
+        <v>-16.76300153638449</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.04090373784263</v>
+        <v>-3.033193774013506</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9919649609803777</v>
+        <v>-0.9633544927951915</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.69890426852821</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.20250605125833</v>
+        <v>-18.14886386791454</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.05133198948976</v>
+        <v>-3.043798029907844</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.306636109955625</v>
+        <v>-1.280377254073424</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.305464612261648</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.71838663140711</v>
+        <v>-19.66622581714399</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.015451568093471</v>
+        <v>-3.014742662097768</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.176080070581528</v>
+        <v>-1.138332048562077</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.93370910990532</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.49793624089548</v>
+        <v>-21.44657722375854</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.763873052735762</v>
+        <v>-2.763433042117739</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.381721477417704</v>
+        <v>-1.346417958831712</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.586542477582074</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.09043733666255</v>
+        <v>-23.02758426438149</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.732510073684502</v>
+        <v>-2.733287425776342</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.520236819971139</v>
+        <v>-1.484894189330211</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.270904908442346</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.94391361898554</v>
+        <v>-24.89450042658164</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.547177601373491</v>
+        <v>-2.550296787754582</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.812134974960296</v>
+        <v>-1.773834495164884</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.986584094452069</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.82916111243318</v>
+        <v>-26.78321422589792</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.450433933490977</v>
+        <v>-2.454746037547596</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.239492843211065</v>
+        <v>-2.207709409569251</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.740227145543572</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.84771715612099</v>
+        <v>-28.79809862542868</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.622673645412391</v>
+        <v>-2.629171135538521</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.408129357071562</v>
+        <v>-2.37631170038168</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.529611210245956</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.05197479213827</v>
+        <v>-31.0085701891738</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.520708518196013</v>
+        <v>-2.532549692827681</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.746883753873232</v>
+        <v>-2.714239855022841</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.362483468455825</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.16874609477553</v>
+        <v>-33.11923756673772</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.632906336784844</v>
+        <v>-2.638391802489523</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.053018696858846</v>
+        <v>-3.024877573332883</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.233396667161867</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.24689424316416</v>
+        <v>-35.19852729822978</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.745265492600284</v>
+        <v>-2.758627148367562</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.384180465996196</v>
+        <v>-3.353580172016176</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.15216743256064</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.38097018560688</v>
+        <v>-37.32553618124636</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.886904910541676</v>
+        <v>-2.898364742637725</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.648797962667968</v>
+        <v>-3.61581672234376</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.106937419205128</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.735887457235</v>
+        <v>-39.68107435674658</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.833678292781573</v>
+        <v>-2.845265239056161</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.874542965740899</v>
+        <v>-3.852561990867249</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.115428337268291</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.96473190878599</v>
+        <v>-41.90082770002854</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.871426314801024</v>
+        <v>-2.88973564551762</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.276874007839931</v>
+        <v>-4.26359546518939</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.152543719537975</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.98315839379183</v>
+        <v>-43.92265204480689</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.896242913657484</v>
+        <v>-2.91396556355005</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.586255251385175</v>
+        <v>-4.572282469759532</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.262054892821184</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.45303088388172</v>
+        <v>-46.39229475157403</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.069797768426098</v>
+        <v>-3.097562438423307</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.765662247373486</v>
+        <v>-4.754275750380441</v>
       </c>
     </row>
   </sheetData>
